--- a/tweet_data_descriptive_stats.xlsx
+++ b/tweet_data_descriptive_stats.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabem\Repos\XAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\gabem\repos\XAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4F98A7C4-00F5-47D1-99F2-78A69627CFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EE762E-91E9-4984-9819-EB69A45F9D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F8B518E-4C4B-4D19-ADBF-8CA4E2A40DEC}"/>
+    <workbookView xWindow="-14505" yWindow="3915" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{4F8B518E-4C4B-4D19-ADBF-8CA4E2A40DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="tweet_data_describe" sheetId="1" r:id="rId1"/>
     <sheet name="pygad" sheetId="2" r:id="rId2"/>
+    <sheet name="0.01_Results" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -156,6 +157,36 @@
   </si>
   <si>
     <t>Parameter</t>
+  </si>
+  <si>
+    <t>Avg. Counterfactual Advertiser Welfare</t>
+  </si>
+  <si>
+    <t>Avg. Collateralized Advertiser Welfare</t>
+  </si>
+  <si>
+    <t>Avg. Counterfactual Externality Welfare</t>
+  </si>
+  <si>
+    <t>Avg. Collateralized Externality Welfare</t>
+  </si>
+  <si>
+    <t>Avg. Change in Advertiser Welfare</t>
+  </si>
+  <si>
+    <t>Avg. Change in Externality Welfare</t>
+  </si>
+  <si>
+    <t>Avg. Counterfactual Total Welfare</t>
+  </si>
+  <si>
+    <t>Avg. Collateralized Total Welfare</t>
+  </si>
+  <si>
+    <t>Avg. Change in Total Welfare</t>
+  </si>
+  <si>
+    <t>Externality Cost per Impression</t>
   </si>
 </sst>
 </file>
@@ -639,12 +670,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1823,7 +1855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9F2B9D-1B90-47A3-9E7C-2CE6E151DB71}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
@@ -1915,4 +1947,132 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750DF50-9235-4259-8647-5AA3A07AF46F}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1">
+        <v>1E-3</v>
+      </c>
+      <c r="C1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5">
+        <v>189472.44</v>
+      </c>
+      <c r="C2" s="5">
+        <v>179068.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="5">
+        <v>189305.68</v>
+      </c>
+      <c r="C3" s="5">
+        <v>171317.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>-166.76</v>
+      </c>
+      <c r="C4" s="5">
+        <v>-7750.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-5820.44</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-56541.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-5520.01</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-41619.040000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5">
+        <v>300.43</v>
+      </c>
+      <c r="C8" s="5">
+        <v>14922.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5">
+        <v>183652</v>
+      </c>
+      <c r="C10" s="5">
+        <v>122526.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5">
+        <v>183785.67</v>
+      </c>
+      <c r="C11" s="5">
+        <v>129698.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="5">
+        <v>133.66999999999999</v>
+      </c>
+      <c r="C12" s="5">
+        <v>7172.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>